--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Truy van xuat kho theo bo/WF0014_Truy van xuat kho theo bo.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Truy van xuat kho theo bo/WF0014_Truy van xuat kho theo bo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Truy van xuat kho theo bo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVNs\SVNThuviecPhuong\10_DOCUMENT\13_DETAIL_DESIGN\Truy van xuat kho theo bo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="826" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="826"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="243">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2084,11 +2084,6 @@
     <t>Ver 2.0</t>
   </si>
   <si>
-    <t>SELECT TOP 1 1 FROM AT2026
-WHERE DivisionID = @DivisionID
-AND VoucherID = @VoucherID AND IsWeb=1</t>
-  </si>
-  <si>
     <t>AT2026</t>
   </si>
   <si>
@@ -2096,16 +2091,6 @@
   </si>
   <si>
     <t>@SQL0001</t>
-  </si>
-  <si>
-    <t>@DivisionID
-@VoucherID
-@IsWeb</t>
-  </si>
-  <si>
-    <t>@@DivisionID
-@@VoucherID
-1</t>
   </si>
   <si>
     <t>Click LinkEdit</t>
@@ -2171,10 +2156,6 @@
   </si>
   <si>
     <t>Luồng Nghiệp vụ 2 LinkDele</t>
-  </si>
-  <si>
-    <t>Thực thi @SQL0001 kiểm tra điều kiện trước khi xóa
-- Nếu = 1 Warn message WFML000189, nếu chọn Yes thực thi xóa, chọn No trở về form WF0014</t>
   </si>
   <si>
     <t>- Tham khảo luồng nghiệp vụ 2</t>
@@ -2189,6 +2170,54 @@
   </si>
   <si>
     <t>Kiểm tra điều kiện IsWeb trước sửa/ xóa Phiếu xuất kho theo bộ</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 1 FROM AT2026
+WHERE DivisionID = @DivisionID
+AND VoucherID = @VoucherID AND IsWeb=1 and KindVoucherID = 2</t>
+  </si>
+  <si>
+    <t>@DivisionID
+@VoucherID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@@DivisionID
+@@VoucherID
+</t>
+  </si>
+  <si>
+    <t>Select Top 1 1 From
+AT2026 inner join AT2027 on AT2026.DivisionID =AT2027.DivisionID  and AT2026.VoucherID = AT2027.VoucherID
+Where AT2027.TVoucherID in (Select TVoucherID From AT2027 Where DivisionID = @DivisionID and VoucherID = @VoucherID)
+ and AT2027.DivisionID = @DivisionID</t>
+  </si>
+  <si>
+    <t>Kiểm tra để update trạng thái Đã xuất kho của hóa đơn theo bộ</t>
+  </si>
+  <si>
+    <t>@SQL0003</t>
+  </si>
+  <si>
+    <t>@SQL0004</t>
+  </si>
+  <si>
+    <t>Check sau khi xóa thanh công để update trạng thái hóa đơn theo bộ đã xuất kho</t>
+  </si>
+  <si>
+    <t>Update trạng thái đã xuất kho của hóa đơn theo bộ</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Update AT9000 Set Status = 0 
+where VoucherID in (Select TVoucherID From AT2027 Where DivisionID = @DivisionID and VoucherID = @VoucherID) and DivisionID = @DivisionID</t>
+  </si>
+  <si>
+    <t>Thực thi @SQL0001 kiểm tra điều kiện trước khi xóa
+- Nếu = 1 Warn message WFML000189, nếu chọn Yes thực thi xóa, chọn No trở về form WF0014
+Thực thi @SQL0003 kiểm tra điều kiện update trạng thái hóa đơn bán hàng theo bộ đả xuất kho hay chưa.
+- Nếu trả về 0 thì Thực thi câu @SQL0004 ngược lại thì  không làm gì.</t>
   </si>
 </sst>
 </file>
@@ -2621,7 +2650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2938,9 +2967,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2985,12 +3011,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3018,9 +3044,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3091,6 +3114,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3099,18 +3134,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3123,15 +3146,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3154,6 +3168,39 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3527,8 +3574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3544,10 +3591,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3558,7 +3605,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
@@ -3572,8 +3619,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3584,7 +3631,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>6</v>
@@ -3610,14 +3657,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="156" t="s">
+      <c r="E4" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="156"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
     </row>
     <row r="5" spans="1:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3628,12 +3675,12 @@
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="99"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="158"/>
-      <c r="I5" s="158"/>
-      <c r="J5" s="158"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
     </row>
     <row r="6" spans="1:10" s="123" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89">
@@ -3648,14 +3695,14 @@
       <c r="D6" s="122" t="s">
         <v>203</v>
       </c>
-      <c r="E6" s="159" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="160"/>
-      <c r="J6" s="161"/>
+      <c r="E6" s="157" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="158"/>
+      <c r="J6" s="159"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="90">
@@ -3666,12 +3713,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="91">
@@ -3682,12 +3729,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92">
@@ -3698,12 +3745,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="93">
@@ -3714,12 +3761,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="94">
@@ -3730,12 +3777,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="95">
@@ -3746,12 +3793,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="151"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="96">
@@ -3762,12 +3809,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="97">
@@ -3778,12 +3825,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="151"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -3794,12 +3841,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="158"/>
-      <c r="J15" s="158"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="89">
@@ -3810,12 +3857,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="90">
@@ -3826,12 +3873,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="158"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="158"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="158"/>
-      <c r="J17" s="158"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="91">
@@ -3842,12 +3889,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="158"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
@@ -3858,12 +3905,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="158"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="93">
@@ -3874,12 +3921,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="94">
@@ -3890,12 +3937,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="95">
@@ -3906,12 +3953,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="96">
@@ -3922,12 +3969,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="158"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="97">
@@ -3938,12 +3985,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="158"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="158"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="158"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -3954,12 +4001,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="40">
@@ -3970,12 +4017,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="89">
@@ -3986,12 +4033,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="158"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="90">
@@ -4002,12 +4049,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="158"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="91">
@@ -4018,12 +4065,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="158"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="92">
@@ -4034,12 +4081,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="93">
@@ -4050,12 +4097,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="158"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="158"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="94">
@@ -4066,12 +4113,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="158"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="158"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="95">
@@ -4082,12 +4129,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="158"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="158"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="96">
@@ -4098,12 +4145,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="158"/>
-      <c r="H34" s="158"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="158"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="97">
@@ -4114,12 +4161,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="40">
@@ -4130,12 +4177,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="158"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="89">
@@ -4146,12 +4193,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="158"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="90">
@@ -4162,12 +4209,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="158"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="91">
@@ -4178,12 +4225,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="158"/>
-      <c r="H39" s="158"/>
-      <c r="I39" s="158"/>
-      <c r="J39" s="158"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="92">
@@ -4194,12 +4241,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="93">
@@ -4210,12 +4257,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="94">
@@ -4226,32 +4273,23 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4267,14 +4305,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4401,7 +4448,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4417,10 +4464,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4445,8 +4492,8 @@
       <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4471,20 +4518,20 @@
       <c r="J2" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="162" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="163"/>
+      <c r="J4" s="161"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4495,10 +4542,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="171" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="172"/>
+      <c r="I5" s="169" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4509,8 +4556,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4521,8 +4568,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4533,8 +4580,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4545,8 +4592,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="174"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4557,8 +4604,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="176"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="174"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4569,10 +4616,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="162" t="s">
+      <c r="I11" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="163"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4583,10 +4630,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="165" t="s">
-        <v>224</v>
-      </c>
-      <c r="J12" s="166"/>
+      <c r="I12" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="164"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4597,8 +4644,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="168"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4609,8 +4656,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="168"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="166"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -4621,8 +4668,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="166"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -4633,8 +4680,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+      <c r="I16" s="165"/>
+      <c r="J16" s="166"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -4645,8 +4692,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="168"/>
+      <c r="I17" s="165"/>
+      <c r="J17" s="166"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -4657,8 +4704,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="168"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="166"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -4669,8 +4716,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="168"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="166"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -4681,8 +4728,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="168"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="166"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -4693,8 +4740,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -4705,8 +4752,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="166"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -4717,8 +4764,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="166"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -4729,8 +4776,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="168"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="166"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -4741,8 +4788,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="166"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -4753,8 +4800,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="168"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="166"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -4765,8 +4812,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="166"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -4777,8 +4824,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="168"/>
+      <c r="I28" s="165"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -4789,8 +4836,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="168"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -4801,8 +4848,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="168"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="166"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -4813,8 +4860,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="168"/>
+      <c r="I31" s="165"/>
+      <c r="J31" s="166"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -4825,8 +4872,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="168"/>
+      <c r="I32" s="165"/>
+      <c r="J32" s="166"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -4837,8 +4884,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="168"/>
+      <c r="I33" s="165"/>
+      <c r="J33" s="166"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -4849,8 +4896,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="168"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="166"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -4861,8 +4908,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="168"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="166"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -4873,8 +4920,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="168"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -4885,8 +4932,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="168"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="166"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -4897,8 +4944,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="168"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="166"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -4909,8 +4956,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="168"/>
+      <c r="I39" s="165"/>
+      <c r="J39" s="166"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -4921,8 +4968,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="168"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="166"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -4933,8 +4980,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="168"/>
+      <c r="I41" s="165"/>
+      <c r="J41" s="166"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -4945,8 +4992,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="168"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="166"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -4957,8 +5004,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="170"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4992,7 +5039,7 @@
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5015,11 +5062,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
       <c r="D1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5027,15 +5074,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="F1" s="177" t="s">
+      <c r="F1" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="178"/>
-      <c r="H1" s="179" t="s">
+      <c r="G1" s="176"/>
+      <c r="H1" s="177" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="180"/>
-      <c r="J1" s="181"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="179"/>
       <c r="K1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5049,9 +5096,9 @@
       <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
       <c r="D2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5059,16 +5106,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - WM</v>
       </c>
-      <c r="F2" s="177" t="s">
+      <c r="F2" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="178"/>
-      <c r="H2" s="179" t="str">
+      <c r="G2" s="176"/>
+      <c r="H2" s="177" t="str">
         <f>'Update History'!F2</f>
         <v>Truy vấn xuất kho theo bộ</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
       <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6261,7 +6308,7 @@
   <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6389,29 +6436,29 @@
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="142"/>
-      <c r="E5" s="137"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="144"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
       <c r="K5" s="69"/>
     </row>
     <row r="6" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="137"/>
-      <c r="E6" s="137"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
       <c r="F6" s="40"/>
       <c r="G6" s="62"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
       <c r="J6" s="63"/>
       <c r="K6" s="69"/>
     </row>
@@ -7264,7 +7311,7 @@
   <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:F35"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7288,7 +7335,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="31" t="s">
@@ -7320,7 +7367,7 @@
       <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="188"/>
+      <c r="A2" s="183"/>
       <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7362,15 +7409,15 @@
       <c r="D4" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="155" t="s">
+      <c r="E4" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155" t="s">
+      <c r="F4" s="154"/>
+      <c r="G4" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
     </row>
     <row r="5" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7379,11 +7426,11 @@
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="184"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="186"/>
     </row>
     <row r="6" spans="1:11" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7392,11 +7439,11 @@
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="182"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="184"/>
+      <c r="E6" s="180"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="186"/>
     </row>
     <row r="7" spans="1:11" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7405,11 +7452,11 @@
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="32"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="182"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="184"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="186"/>
     </row>
     <row r="8" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7418,11 +7465,11 @@
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="32"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="182"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="184"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="186"/>
     </row>
     <row r="9" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7431,11 +7478,11 @@
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="182"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="184"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="186"/>
     </row>
     <row r="10" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -7444,11 +7491,11 @@
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="32"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="184"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="186"/>
     </row>
     <row r="11" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -7457,11 +7504,11 @@
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="32"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="184"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="186"/>
     </row>
     <row r="12" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -7470,11 +7517,11 @@
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="32"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="184"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="186"/>
     </row>
     <row r="13" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -7483,11 +7530,11 @@
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="32"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="184"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186"/>
     </row>
     <row r="14" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -7496,11 +7543,11 @@
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="32"/>
-      <c r="E14" s="185"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="182"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="184"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -7509,11 +7556,11 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="184"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="181"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="186"/>
     </row>
     <row r="16" spans="1:11" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -7522,11 +7569,11 @@
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="32"/>
-      <c r="E16" s="185"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="186"/>
     </row>
     <row r="17" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -7535,11 +7582,11 @@
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="32"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="182"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186"/>
     </row>
     <row r="18" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -7548,11 +7595,11 @@
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="32"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="182"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="184"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="181"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="186"/>
     </row>
     <row r="19" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -7561,11 +7608,11 @@
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="184"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="181"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
     </row>
     <row r="20" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -7574,11 +7621,11 @@
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
       <c r="D20" s="32"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="184"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="186"/>
     </row>
     <row r="21" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -7587,11 +7634,11 @@
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
       <c r="D21" s="32"/>
-      <c r="E21" s="185"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="182"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="184"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="186"/>
     </row>
     <row r="22" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -7600,11 +7647,11 @@
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
       <c r="D22" s="32"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="184"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="186"/>
     </row>
     <row r="23" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -7613,11 +7660,11 @@
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
       <c r="D23" s="32"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="184"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="186"/>
     </row>
     <row r="24" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -7626,11 +7673,11 @@
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
       <c r="D24" s="32"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="184"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="185"/>
+      <c r="I24" s="186"/>
     </row>
     <row r="25" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -7639,11 +7686,11 @@
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
       <c r="D25" s="32"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="184"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="185"/>
+      <c r="I25" s="186"/>
     </row>
     <row r="26" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -7652,11 +7699,11 @@
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
       <c r="D26" s="32"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="182"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="184"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="186"/>
     </row>
     <row r="27" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -7665,11 +7712,11 @@
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="32"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="184"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="186"/>
     </row>
     <row r="28" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -7678,11 +7725,11 @@
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="32"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="184"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186"/>
     </row>
     <row r="29" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -7691,11 +7738,11 @@
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="32"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="184"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="186"/>
     </row>
     <row r="30" spans="1:17" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -7704,11 +7751,11 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="32"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="184"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="186"/>
     </row>
     <row r="31" spans="1:17" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -7717,11 +7764,11 @@
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="32"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="184"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186"/>
     </row>
     <row r="32" spans="1:17" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -7730,11 +7777,11 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="32"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="184"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="186"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
@@ -7750,11 +7797,11 @@
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="32"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="182"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="184"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="186"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
@@ -7770,11 +7817,11 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="32"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="182"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="184"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="186"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
@@ -7790,11 +7837,11 @@
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="32"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="182"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="184"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="186"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
@@ -7810,11 +7857,11 @@
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="32"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="182"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="184"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="186"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -7830,11 +7877,11 @@
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="32"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="182"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="184"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="185"/>
+      <c r="I37" s="186"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -7850,11 +7897,11 @@
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="32"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="182"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="184"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="186"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
@@ -7870,11 +7917,11 @@
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="32"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="182"/>
-      <c r="H39" s="183"/>
-      <c r="I39" s="184"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="186"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -7890,11 +7937,11 @@
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="32"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="183"/>
-      <c r="I40" s="184"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="186"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
@@ -7910,11 +7957,11 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="32"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="182"/>
-      <c r="H41" s="183"/>
-      <c r="I41" s="184"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="185"/>
+      <c r="I41" s="186"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
@@ -7930,11 +7977,11 @@
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="32"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="182"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="184"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="185"/>
+      <c r="I42" s="186"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
@@ -7950,11 +7997,11 @@
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="32"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="184"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="185"/>
+      <c r="I43" s="186"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
@@ -7970,11 +8017,11 @@
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="32"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="182"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="184"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="184"/>
+      <c r="H44" s="185"/>
+      <c r="I44" s="186"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
@@ -7990,11 +8037,11 @@
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="32"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="182"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="184"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="185"/>
+      <c r="I45" s="186"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
@@ -8010,11 +8057,11 @@
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="32"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="182"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="184"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="184"/>
+      <c r="H46" s="185"/>
+      <c r="I46" s="186"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
@@ -8030,11 +8077,11 @@
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="32"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="182"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="184"/>
+      <c r="E47" s="148"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="185"/>
+      <c r="I47" s="186"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
@@ -8050,11 +8097,11 @@
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="32"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="182"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="184"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="184"/>
+      <c r="H48" s="185"/>
+      <c r="I48" s="186"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
@@ -8070,11 +8117,11 @@
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="32"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="182"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="184"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="185"/>
+      <c r="I49" s="186"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
@@ -8090,11 +8137,11 @@
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="32"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="182"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="184"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="184"/>
+      <c r="H50" s="185"/>
+      <c r="I50" s="186"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
@@ -8110,11 +8157,11 @@
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
       <c r="D51" s="32"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="182"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="184"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="185"/>
+      <c r="I51" s="186"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
@@ -8130,11 +8177,11 @@
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="32"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="182"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="184"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="185"/>
+      <c r="I52" s="186"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
@@ -8150,11 +8197,11 @@
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="32"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="151"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="184"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="185"/>
+      <c r="I53" s="186"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
@@ -8170,11 +8217,11 @@
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
       <c r="D54" s="32"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="182"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="184"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="186"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
@@ -8190,11 +8237,11 @@
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
       <c r="D55" s="32"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="151"/>
-      <c r="G55" s="182"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="184"/>
+      <c r="E55" s="148"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="185"/>
+      <c r="I55" s="186"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
@@ -8210,11 +8257,11 @@
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
       <c r="D56" s="32"/>
-      <c r="E56" s="149"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="182"/>
-      <c r="H56" s="183"/>
-      <c r="I56" s="184"/>
+      <c r="E56" s="148"/>
+      <c r="F56" s="150"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="185"/>
+      <c r="I56" s="186"/>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
@@ -8226,25 +8273,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
@@ -8259,80 +8361,25 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D56">
@@ -8354,8 +8401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048465"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8383,24 +8430,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="192" t="str">
+      <c r="J1" s="190" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="192"/>
+      <c r="K1" s="190"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -8425,22 +8472,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="192" t="str">
+      <c r="J2" s="190" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - WM</v>
       </c>
-      <c r="K2" s="192"/>
+      <c r="K2" s="190"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -8495,12 +8542,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="162" t="s">
+      <c r="K4" s="160" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="164"/>
-      <c r="M4" s="164"/>
-      <c r="N4" s="163"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="161"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -8517,153 +8564,197 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="34" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="118">
+    <row r="5" spans="1:21" s="25" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="199">
         <v>3</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="199" t="s">
         <v>206</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="199">
         <v>51</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="199" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" s="199"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="201" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="124" t="s">
+      <c r="I5" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="127" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5" s="207" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" s="208"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="209"/>
+      <c r="O5" s="202" t="s">
+        <v>232</v>
+      </c>
+      <c r="P5" s="202" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q5" s="203" t="s">
+        <v>210</v>
+      </c>
+      <c r="R5" s="204" t="s">
+        <v>159</v>
+      </c>
+      <c r="S5" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+    </row>
+    <row r="6" spans="1:21" s="206" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="199">
+        <v>4</v>
+      </c>
+      <c r="B6" s="199" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="199">
+        <v>51</v>
+      </c>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="201" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="I6" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="207" t="s">
+        <v>215</v>
+      </c>
+      <c r="L6" s="208"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="202" t="s">
+        <v>216</v>
+      </c>
+      <c r="P6" s="202" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q6" s="203" t="s">
+        <v>210</v>
+      </c>
+      <c r="R6" s="204" t="s">
+        <v>217</v>
+      </c>
+      <c r="S6" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+    </row>
+    <row r="7" spans="1:21" s="25" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="199">
+        <v>5</v>
+      </c>
+      <c r="B7" s="199" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="199">
+        <v>51</v>
+      </c>
+      <c r="D7" s="199"/>
+      <c r="E7" s="199"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="201" t="s">
+        <v>235</v>
+      </c>
+      <c r="H7" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="K7" s="207" t="s">
         <v>234</v>
       </c>
-      <c r="H5" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="I5" s="126" t="s">
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="202" t="s">
+        <v>232</v>
+      </c>
+      <c r="P7" s="202" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q7" s="203"/>
+      <c r="R7" s="204" t="s">
+        <v>217</v>
+      </c>
+      <c r="S7" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+    </row>
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="118">
+        <v>6</v>
+      </c>
+      <c r="B8" s="199" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="199">
+        <v>51</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="K5" s="193" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="195"/>
-      <c r="O5" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="P5" s="128" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q5" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" s="130" t="s">
-        <v>159</v>
-      </c>
-      <c r="S5" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-    </row>
-    <row r="6" spans="1:21" s="119" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="118">
-        <v>4</v>
-      </c>
-      <c r="B6" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="118">
-        <v>51</v>
-      </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="124" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="126" t="s">
-        <v>209</v>
-      </c>
-      <c r="I6" s="126" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="127" t="s">
+      <c r="J8" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="207" t="s">
+        <v>241</v>
+      </c>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="202" t="s">
+        <v>232</v>
+      </c>
+      <c r="P8" s="202" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q8" s="128"/>
+      <c r="R8" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="K6" s="193" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="128" t="s">
-        <v>219</v>
-      </c>
-      <c r="P6" s="128" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q6" s="129" t="s">
-        <v>213</v>
-      </c>
-      <c r="R6" s="130" t="s">
-        <v>220</v>
-      </c>
-      <c r="S6" s="131" t="s">
-        <v>221</v>
-      </c>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-    </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-    </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="191"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="81"/>
+      <c r="S8" s="124" t="s">
+        <v>239</v>
+      </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
@@ -8680,10 +8771,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="191"/>
+      <c r="K9" s="187"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="188"/>
+      <c r="N9" s="189"/>
       <c r="O9" s="87"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="76"/>
@@ -8705,10 +8796,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="190"/>
-      <c r="M10" s="190"/>
-      <c r="N10" s="191"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="189"/>
       <c r="O10" s="84"/>
       <c r="P10" s="84"/>
       <c r="Q10" s="76"/>
@@ -8730,10 +8821,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="191"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="188"/>
+      <c r="N11" s="189"/>
       <c r="O11" s="84"/>
       <c r="P11" s="84"/>
       <c r="Q11" s="76"/>
@@ -8755,10 +8846,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="190"/>
-      <c r="M12" s="190"/>
-      <c r="N12" s="191"/>
+      <c r="K12" s="187"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="189"/>
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="76"/>
@@ -8780,10 +8871,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="189"/>
-      <c r="L13" s="190"/>
-      <c r="M13" s="190"/>
-      <c r="N13" s="191"/>
+      <c r="K13" s="187"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="189"/>
       <c r="O13" s="80"/>
       <c r="P13" s="80"/>
       <c r="Q13" s="76"/>
@@ -8805,10 +8896,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="40"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="190"/>
-      <c r="M14" s="190"/>
-      <c r="N14" s="191"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="189"/>
       <c r="O14" s="72"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="76"/>
@@ -8830,10 +8921,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="190"/>
-      <c r="M15" s="190"/>
-      <c r="N15" s="191"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="188"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="189"/>
       <c r="O15" s="60"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="76"/>
@@ -8855,10 +8946,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="191"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="189"/>
       <c r="O16" s="60"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -8880,10 +8971,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="189"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="190"/>
-      <c r="N17" s="191"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="188"/>
+      <c r="M17" s="188"/>
+      <c r="N17" s="189"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -8905,10 +8996,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="190"/>
-      <c r="M18" s="190"/>
-      <c r="N18" s="191"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="189"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -8930,10 +9021,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="189"/>
-      <c r="L19" s="190"/>
-      <c r="M19" s="190"/>
-      <c r="N19" s="191"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="188"/>
+      <c r="M19" s="188"/>
+      <c r="N19" s="189"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -8955,10 +9046,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="189"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="191"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="188"/>
+      <c r="M20" s="188"/>
+      <c r="N20" s="189"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -8980,10 +9071,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="189"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="191"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="189"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9005,10 +9096,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="189"/>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="191"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="188"/>
+      <c r="M22" s="188"/>
+      <c r="N22" s="189"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9030,10 +9121,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="189"/>
-      <c r="L23" s="190"/>
-      <c r="M23" s="190"/>
-      <c r="N23" s="191"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="188"/>
+      <c r="M23" s="188"/>
+      <c r="N23" s="189"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9055,10 +9146,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="189"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="190"/>
-      <c r="N24" s="191"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="188"/>
+      <c r="M24" s="188"/>
+      <c r="N24" s="189"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9080,10 +9171,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="189"/>
-      <c r="L25" s="190"/>
-      <c r="M25" s="190"/>
-      <c r="N25" s="191"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="188"/>
+      <c r="M25" s="188"/>
+      <c r="N25" s="189"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9105,10 +9196,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="189"/>
-      <c r="L26" s="190"/>
-      <c r="M26" s="190"/>
-      <c r="N26" s="191"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="189"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9130,10 +9221,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="189"/>
-      <c r="L27" s="190"/>
-      <c r="M27" s="190"/>
-      <c r="N27" s="191"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="188"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="189"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -9155,10 +9246,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="189"/>
-      <c r="L28" s="190"/>
-      <c r="M28" s="190"/>
-      <c r="N28" s="191"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="188"/>
+      <c r="M28" s="188"/>
+      <c r="N28" s="189"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -9180,10 +9271,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="189"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="190"/>
-      <c r="N29" s="191"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="188"/>
+      <c r="N29" s="189"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -9205,10 +9296,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="189"/>
-      <c r="L30" s="190"/>
-      <c r="M30" s="190"/>
-      <c r="N30" s="191"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="188"/>
+      <c r="N30" s="189"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -9230,10 +9321,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="189"/>
-      <c r="L31" s="190"/>
-      <c r="M31" s="190"/>
-      <c r="N31" s="191"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="189"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -9255,10 +9346,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="81"/>
-      <c r="K32" s="189"/>
-      <c r="L32" s="190"/>
-      <c r="M32" s="190"/>
-      <c r="N32" s="191"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="188"/>
+      <c r="N32" s="189"/>
       <c r="O32" s="84"/>
       <c r="P32" s="84"/>
       <c r="Q32" s="76"/>
@@ -9280,10 +9371,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="189"/>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="191"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="188"/>
+      <c r="M33" s="188"/>
+      <c r="N33" s="189"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -9305,10 +9396,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="189"/>
-      <c r="L34" s="190"/>
-      <c r="M34" s="190"/>
-      <c r="N34" s="191"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="188"/>
+      <c r="M34" s="188"/>
+      <c r="N34" s="189"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -9330,10 +9421,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="189"/>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="191"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="189"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -9355,10 +9446,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="189"/>
-      <c r="L36" s="190"/>
-      <c r="M36" s="190"/>
-      <c r="N36" s="191"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="188"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="189"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -9380,10 +9471,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="190"/>
-      <c r="N37" s="191"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="188"/>
+      <c r="M37" s="188"/>
+      <c r="N37" s="189"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -9405,10 +9496,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="189"/>
-      <c r="L38" s="190"/>
-      <c r="M38" s="190"/>
-      <c r="N38" s="191"/>
+      <c r="K38" s="187"/>
+      <c r="L38" s="188"/>
+      <c r="M38" s="188"/>
+      <c r="N38" s="189"/>
       <c r="O38" s="74"/>
       <c r="P38" s="74"/>
       <c r="Q38" s="76"/>
@@ -9430,10 +9521,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="190"/>
-      <c r="M39" s="190"/>
-      <c r="N39" s="191"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="188"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="189"/>
       <c r="O39" s="74"/>
       <c r="P39" s="74"/>
       <c r="Q39" s="76"/>
@@ -9455,10 +9546,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="189"/>
-      <c r="L40" s="190"/>
-      <c r="M40" s="190"/>
-      <c r="N40" s="191"/>
+      <c r="K40" s="187"/>
+      <c r="L40" s="188"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="189"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -9480,10 +9571,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="189"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="191"/>
+      <c r="K41" s="187"/>
+      <c r="L41" s="188"/>
+      <c r="M41" s="188"/>
+      <c r="N41" s="189"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -9505,10 +9596,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="190"/>
-      <c r="M42" s="190"/>
-      <c r="N42" s="191"/>
+      <c r="K42" s="187"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="189"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -9530,10 +9621,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="189"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="190"/>
-      <c r="N43" s="191"/>
+      <c r="K43" s="187"/>
+      <c r="L43" s="188"/>
+      <c r="M43" s="188"/>
+      <c r="N43" s="189"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -9555,10 +9646,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="189"/>
-      <c r="L44" s="190"/>
-      <c r="M44" s="190"/>
-      <c r="N44" s="191"/>
+      <c r="K44" s="187"/>
+      <c r="L44" s="188"/>
+      <c r="M44" s="188"/>
+      <c r="N44" s="189"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -9580,10 +9671,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="189"/>
-      <c r="L45" s="190"/>
-      <c r="M45" s="190"/>
-      <c r="N45" s="191"/>
+      <c r="K45" s="187"/>
+      <c r="L45" s="188"/>
+      <c r="M45" s="188"/>
+      <c r="N45" s="189"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -9605,10 +9696,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="189"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="190"/>
-      <c r="N46" s="191"/>
+      <c r="K46" s="187"/>
+      <c r="L46" s="188"/>
+      <c r="M46" s="188"/>
+      <c r="N46" s="189"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -9630,10 +9721,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="190"/>
-      <c r="M47" s="190"/>
-      <c r="N47" s="191"/>
+      <c r="K47" s="187"/>
+      <c r="L47" s="188"/>
+      <c r="M47" s="188"/>
+      <c r="N47" s="189"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -9655,10 +9746,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="189"/>
-      <c r="L48" s="190"/>
-      <c r="M48" s="190"/>
-      <c r="N48" s="191"/>
+      <c r="K48" s="187"/>
+      <c r="L48" s="188"/>
+      <c r="M48" s="188"/>
+      <c r="N48" s="189"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -9680,10 +9771,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="189"/>
-      <c r="L49" s="190"/>
-      <c r="M49" s="190"/>
-      <c r="N49" s="191"/>
+      <c r="K49" s="187"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="189"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -9705,10 +9796,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="189"/>
-      <c r="L50" s="190"/>
-      <c r="M50" s="190"/>
-      <c r="N50" s="191"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="188"/>
+      <c r="M50" s="188"/>
+      <c r="N50" s="189"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -9730,10 +9821,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="189"/>
-      <c r="L51" s="190"/>
-      <c r="M51" s="190"/>
-      <c r="N51" s="191"/>
+      <c r="K51" s="187"/>
+      <c r="L51" s="188"/>
+      <c r="M51" s="188"/>
+      <c r="N51" s="189"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -9755,10 +9846,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="189"/>
-      <c r="L52" s="190"/>
-      <c r="M52" s="190"/>
-      <c r="N52" s="191"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="188"/>
+      <c r="M52" s="188"/>
+      <c r="N52" s="189"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -9780,10 +9871,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="189"/>
-      <c r="L53" s="190"/>
-      <c r="M53" s="190"/>
-      <c r="N53" s="191"/>
+      <c r="K53" s="187"/>
+      <c r="L53" s="188"/>
+      <c r="M53" s="188"/>
+      <c r="N53" s="189"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -9805,10 +9896,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="189"/>
-      <c r="L54" s="190"/>
-      <c r="M54" s="190"/>
-      <c r="N54" s="191"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="188"/>
+      <c r="M54" s="188"/>
+      <c r="N54" s="189"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -9830,10 +9921,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="189"/>
-      <c r="L55" s="190"/>
-      <c r="M55" s="190"/>
-      <c r="N55" s="191"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="188"/>
+      <c r="M55" s="188"/>
+      <c r="N55" s="189"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -9855,10 +9946,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="189"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="190"/>
-      <c r="N56" s="191"/>
+      <c r="K56" s="187"/>
+      <c r="L56" s="188"/>
+      <c r="M56" s="188"/>
+      <c r="N56" s="189"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -9880,10 +9971,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="189"/>
-      <c r="L57" s="190"/>
-      <c r="M57" s="190"/>
-      <c r="N57" s="191"/>
+      <c r="K57" s="187"/>
+      <c r="L57" s="188"/>
+      <c r="M57" s="188"/>
+      <c r="N57" s="189"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -9905,10 +9996,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="189"/>
-      <c r="L58" s="190"/>
-      <c r="M58" s="190"/>
-      <c r="N58" s="191"/>
+      <c r="K58" s="187"/>
+      <c r="L58" s="188"/>
+      <c r="M58" s="188"/>
+      <c r="N58" s="189"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -9930,10 +10021,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="189"/>
-      <c r="L59" s="190"/>
-      <c r="M59" s="190"/>
-      <c r="N59" s="191"/>
+      <c r="K59" s="187"/>
+      <c r="L59" s="188"/>
+      <c r="M59" s="188"/>
+      <c r="N59" s="189"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -9955,10 +10046,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="189"/>
-      <c r="L60" s="190"/>
-      <c r="M60" s="190"/>
-      <c r="N60" s="191"/>
+      <c r="K60" s="187"/>
+      <c r="L60" s="188"/>
+      <c r="M60" s="188"/>
+      <c r="N60" s="189"/>
       <c r="O60" s="83"/>
       <c r="P60" s="83"/>
       <c r="Q60" s="76"/>
@@ -9980,10 +10071,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="189"/>
-      <c r="L61" s="190"/>
-      <c r="M61" s="190"/>
-      <c r="N61" s="191"/>
+      <c r="K61" s="187"/>
+      <c r="L61" s="188"/>
+      <c r="M61" s="188"/>
+      <c r="N61" s="189"/>
       <c r="O61" s="83"/>
       <c r="P61" s="83"/>
       <c r="Q61" s="76"/>
@@ -10005,10 +10096,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="189"/>
-      <c r="L62" s="190"/>
-      <c r="M62" s="190"/>
-      <c r="N62" s="191"/>
+      <c r="K62" s="187"/>
+      <c r="L62" s="188"/>
+      <c r="M62" s="188"/>
+      <c r="N62" s="189"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="76"/>
@@ -10028,10 +10119,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="189"/>
-      <c r="L63" s="190"/>
-      <c r="M63" s="190"/>
-      <c r="N63" s="191"/>
+      <c r="K63" s="187"/>
+      <c r="L63" s="188"/>
+      <c r="M63" s="188"/>
+      <c r="N63" s="189"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="76"/>
@@ -10051,10 +10142,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="189"/>
-      <c r="L64" s="190"/>
-      <c r="M64" s="190"/>
-      <c r="N64" s="191"/>
+      <c r="K64" s="187"/>
+      <c r="L64" s="188"/>
+      <c r="M64" s="188"/>
+      <c r="N64" s="189"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="76"/>
@@ -10074,10 +10165,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="189"/>
-      <c r="L65" s="190"/>
-      <c r="M65" s="190"/>
-      <c r="N65" s="191"/>
+      <c r="K65" s="187"/>
+      <c r="L65" s="188"/>
+      <c r="M65" s="188"/>
+      <c r="N65" s="189"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="76"/>
@@ -10097,10 +10188,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="189"/>
-      <c r="L66" s="190"/>
-      <c r="M66" s="190"/>
-      <c r="N66" s="191"/>
+      <c r="K66" s="187"/>
+      <c r="L66" s="188"/>
+      <c r="M66" s="188"/>
+      <c r="N66" s="189"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="76"/>
@@ -10120,10 +10211,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="189"/>
-      <c r="L67" s="190"/>
-      <c r="M67" s="190"/>
-      <c r="N67" s="191"/>
+      <c r="K67" s="187"/>
+      <c r="L67" s="188"/>
+      <c r="M67" s="188"/>
+      <c r="N67" s="189"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="76"/>
@@ -10143,10 +10234,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="189"/>
-      <c r="L68" s="190"/>
-      <c r="M68" s="190"/>
-      <c r="N68" s="191"/>
+      <c r="K68" s="187"/>
+      <c r="L68" s="188"/>
+      <c r="M68" s="188"/>
+      <c r="N68" s="189"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="76"/>
@@ -10166,10 +10257,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="189"/>
-      <c r="L69" s="190"/>
-      <c r="M69" s="190"/>
-      <c r="N69" s="191"/>
+      <c r="K69" s="187"/>
+      <c r="L69" s="188"/>
+      <c r="M69" s="188"/>
+      <c r="N69" s="189"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="76"/>
@@ -10189,10 +10280,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="189"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="190"/>
-      <c r="N70" s="191"/>
+      <c r="K70" s="187"/>
+      <c r="L70" s="188"/>
+      <c r="M70" s="188"/>
+      <c r="N70" s="189"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="76"/>
@@ -10212,10 +10303,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="189"/>
-      <c r="L71" s="190"/>
-      <c r="M71" s="190"/>
-      <c r="N71" s="191"/>
+      <c r="K71" s="187"/>
+      <c r="L71" s="188"/>
+      <c r="M71" s="188"/>
+      <c r="N71" s="189"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="76"/>
@@ -10235,10 +10326,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="189"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="190"/>
-      <c r="N72" s="191"/>
+      <c r="K72" s="187"/>
+      <c r="L72" s="188"/>
+      <c r="M72" s="188"/>
+      <c r="N72" s="189"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="76"/>
@@ -10258,10 +10349,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="189"/>
-      <c r="L73" s="190"/>
-      <c r="M73" s="190"/>
-      <c r="N73" s="191"/>
+      <c r="K73" s="187"/>
+      <c r="L73" s="188"/>
+      <c r="M73" s="188"/>
+      <c r="N73" s="189"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="76"/>
@@ -10281,10 +10372,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="189"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="190"/>
-      <c r="N74" s="191"/>
+      <c r="K74" s="187"/>
+      <c r="L74" s="188"/>
+      <c r="M74" s="188"/>
+      <c r="N74" s="189"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="76"/>
@@ -10304,10 +10395,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="189"/>
-      <c r="L75" s="190"/>
-      <c r="M75" s="190"/>
-      <c r="N75" s="191"/>
+      <c r="K75" s="187"/>
+      <c r="L75" s="188"/>
+      <c r="M75" s="188"/>
+      <c r="N75" s="189"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="76"/>
@@ -10327,10 +10418,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="189"/>
-      <c r="L76" s="190"/>
-      <c r="M76" s="190"/>
-      <c r="N76" s="191"/>
+      <c r="K76" s="187"/>
+      <c r="L76" s="188"/>
+      <c r="M76" s="188"/>
+      <c r="N76" s="189"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="76"/>
@@ -10350,10 +10441,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="189"/>
-      <c r="L77" s="190"/>
-      <c r="M77" s="190"/>
-      <c r="N77" s="191"/>
+      <c r="K77" s="187"/>
+      <c r="L77" s="188"/>
+      <c r="M77" s="188"/>
+      <c r="N77" s="189"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="76"/>
@@ -10373,10 +10464,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="189"/>
-      <c r="L78" s="190"/>
-      <c r="M78" s="190"/>
-      <c r="N78" s="191"/>
+      <c r="K78" s="187"/>
+      <c r="L78" s="188"/>
+      <c r="M78" s="188"/>
+      <c r="N78" s="189"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="76"/>
@@ -10396,10 +10487,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="189"/>
-      <c r="L79" s="190"/>
-      <c r="M79" s="190"/>
-      <c r="N79" s="191"/>
+      <c r="K79" s="187"/>
+      <c r="L79" s="188"/>
+      <c r="M79" s="188"/>
+      <c r="N79" s="189"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="76"/>
@@ -10419,10 +10510,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="189"/>
-      <c r="L80" s="190"/>
-      <c r="M80" s="190"/>
-      <c r="N80" s="191"/>
+      <c r="K80" s="187"/>
+      <c r="L80" s="188"/>
+      <c r="M80" s="188"/>
+      <c r="N80" s="189"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="76"/>
@@ -10442,10 +10533,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="189"/>
-      <c r="L81" s="190"/>
-      <c r="M81" s="190"/>
-      <c r="N81" s="191"/>
+      <c r="K81" s="187"/>
+      <c r="L81" s="188"/>
+      <c r="M81" s="188"/>
+      <c r="N81" s="189"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="76"/>
@@ -10465,10 +10556,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="189"/>
-      <c r="L82" s="190"/>
-      <c r="M82" s="190"/>
-      <c r="N82" s="191"/>
+      <c r="K82" s="187"/>
+      <c r="L82" s="188"/>
+      <c r="M82" s="188"/>
+      <c r="N82" s="189"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="76"/>
@@ -10488,10 +10579,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="189"/>
-      <c r="L83" s="190"/>
-      <c r="M83" s="190"/>
-      <c r="N83" s="191"/>
+      <c r="K83" s="187"/>
+      <c r="L83" s="188"/>
+      <c r="M83" s="188"/>
+      <c r="N83" s="189"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="76"/>
@@ -10511,10 +10602,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="189"/>
-      <c r="L84" s="190"/>
-      <c r="M84" s="190"/>
-      <c r="N84" s="191"/>
+      <c r="K84" s="187"/>
+      <c r="L84" s="188"/>
+      <c r="M84" s="188"/>
+      <c r="N84" s="189"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="76"/>
@@ -10534,10 +10625,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="189"/>
-      <c r="L85" s="190"/>
-      <c r="M85" s="190"/>
-      <c r="N85" s="191"/>
+      <c r="K85" s="187"/>
+      <c r="L85" s="188"/>
+      <c r="M85" s="188"/>
+      <c r="N85" s="189"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="76"/>
@@ -10557,10 +10648,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="189"/>
-      <c r="L86" s="190"/>
-      <c r="M86" s="190"/>
-      <c r="N86" s="191"/>
+      <c r="K86" s="187"/>
+      <c r="L86" s="188"/>
+      <c r="M86" s="188"/>
+      <c r="N86" s="189"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="76"/>
@@ -10580,10 +10671,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="189"/>
-      <c r="L87" s="190"/>
-      <c r="M87" s="190"/>
-      <c r="N87" s="191"/>
+      <c r="K87" s="187"/>
+      <c r="L87" s="188"/>
+      <c r="M87" s="188"/>
+      <c r="N87" s="189"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="76"/>
@@ -10603,10 +10694,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="189"/>
-      <c r="L88" s="190"/>
-      <c r="M88" s="190"/>
-      <c r="N88" s="191"/>
+      <c r="K88" s="187"/>
+      <c r="L88" s="188"/>
+      <c r="M88" s="188"/>
+      <c r="N88" s="189"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="76"/>
@@ -10626,10 +10717,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="189"/>
-      <c r="L89" s="190"/>
-      <c r="M89" s="190"/>
-      <c r="N89" s="191"/>
+      <c r="K89" s="187"/>
+      <c r="L89" s="188"/>
+      <c r="M89" s="188"/>
+      <c r="N89" s="189"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="76"/>
@@ -10649,10 +10740,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="189"/>
-      <c r="L90" s="190"/>
-      <c r="M90" s="190"/>
-      <c r="N90" s="191"/>
+      <c r="K90" s="187"/>
+      <c r="L90" s="188"/>
+      <c r="M90" s="188"/>
+      <c r="N90" s="189"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="76"/>
@@ -10672,10 +10763,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="189"/>
-      <c r="L91" s="190"/>
-      <c r="M91" s="190"/>
-      <c r="N91" s="191"/>
+      <c r="K91" s="187"/>
+      <c r="L91" s="188"/>
+      <c r="M91" s="188"/>
+      <c r="N91" s="189"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="76"/>
@@ -10695,10 +10786,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="189"/>
-      <c r="L92" s="190"/>
-      <c r="M92" s="190"/>
-      <c r="N92" s="191"/>
+      <c r="K92" s="187"/>
+      <c r="L92" s="188"/>
+      <c r="M92" s="188"/>
+      <c r="N92" s="189"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="76"/>
@@ -10711,6 +10802,82 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="92">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K88:N88"/>
     <mergeCell ref="K58:N58"/>
     <mergeCell ref="K85:N85"/>
     <mergeCell ref="K59:N59"/>
@@ -10727,82 +10894,6 @@
     <mergeCell ref="K76:N76"/>
     <mergeCell ref="K77:N77"/>
     <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048465:Q1048576 Q5:Q92"/>
@@ -10831,8 +10922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:J25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10848,10 +10939,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -10879,8 +10970,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11153,62 +11244,62 @@
       <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" s="123" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="133"/>
-      <c r="B24" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="135"/>
+      <c r="A24" s="132"/>
+      <c r="B24" s="145" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="134"/>
     </row>
     <row r="25" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="119" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" s="132"/>
-      <c r="C25" s="196" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197"/>
-      <c r="I25" s="197"/>
-      <c r="J25" s="198"/>
+        <v>212</v>
+      </c>
+      <c r="B25" s="131"/>
+      <c r="C25" s="191" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="192"/>
+      <c r="E25" s="192"/>
+      <c r="F25" s="192"/>
+      <c r="G25" s="192"/>
+      <c r="H25" s="192"/>
+      <c r="I25" s="192"/>
+      <c r="J25" s="193"/>
     </row>
     <row r="26" spans="1:10" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A26" s="119"/>
-      <c r="B26" s="148" t="s">
-        <v>230</v>
-      </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="140"/>
-    </row>
-    <row r="27" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="137"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="139"/>
+    </row>
+    <row r="27" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="119"/>
-      <c r="B27" s="132"/>
-      <c r="C27" s="196" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="196"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="196"/>
-      <c r="J27" s="199"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="191" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="194"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="73" t="s">
@@ -11332,17 +11423,17 @@
       <c r="A38" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="136" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="135"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="135" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="134"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="79" t="s">
@@ -11426,17 +11517,17 @@
       <c r="A45" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="B45" s="134"/>
-      <c r="C45" s="136" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="135"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="135" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="134"/>
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="79" t="s">
@@ -11976,10 +12067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="155"/>
+      <c r="B1" s="154"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12007,8 +12098,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="155"/>
-      <c r="B2" s="155"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="154"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12419,14 +12510,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="200" t="s">
+      <c r="B1" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="200"/>
-      <c r="G1" s="200"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -12619,11 +12710,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="196" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="202"/>
-      <c r="G27" s="203"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="198"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
